--- a/CashFlow/CCL_cashflow.xlsx
+++ b/CashFlow/CCL_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1358000000.0</v>
+        <v>91000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1486000000.0</v>
+        <v>77000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1208000000.0</v>
+        <v>128000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>876000000.0</v>
+        <v>132000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>512000000.0</v>
+        <v>57000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>79000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-441000000.0</v>
+        <v>3629000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-165000000.0</v>
+        <v>4028000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-80000000.0</v>
+        <v>3421000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1084000000.0</v>
+        <v>2745000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>223000000.0</v>
+        <v>979000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>80000000.0</v>
